--- a/E5/Tableau de compétence E5 (2) (1).xlsx
+++ b/E5/Tableau de compétence E5 (2) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2f25182b63ad68a/Documents/PORTEFOLIO/E5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49FFA26-787F-40F1-889A-237D2A631084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D49FFA26-787F-40F1-889A-237D2A631084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E46A846-5879-4244-9676-3A3AE052436D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>NOM et Prenom : Miri Mohammed</t>
+  </si>
+  <si>
+    <t>Développement de l'employabilité via Linkedin</t>
+  </si>
+  <si>
+    <t>Création de mon Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13/12/2025</t>
   </si>
 </sst>
 </file>
@@ -513,7 +522,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,6 +652,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -955,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1268,14 +1283,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="21">
+        <v>45978</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="44"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1313,14 +1332,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="45"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
